--- a/biology/Botanique/Marcel_Saule/Marcel_Saule.xlsx
+++ b/biology/Botanique/Marcel_Saule/Marcel_Saule.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marcel Saule, né en 1929 et mort en 2022, est un enseignant, botaniste et dessinateur français. Il est particulièrement connu pour son ouvrage La grande Flore illustrée des Pyrénées qu'il a écrit et dessiné pendant plus de 25 ans. Sa fille Hélène Saule-Sorbé en illustre les éditions.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est né à Martel dans le Quercy[1] le 28 juillet 1929[2], et décède le 30 novembre 2022[3].
-Il reçoit en 2018 le prix Gandoger de la Société botanique de France pour sa publication de la Nouvelle Flore Illustrée des Pyrénées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né à Martel dans le Quercy le 28 juillet 1929, et décède le 30 novembre 2022.
+Il reçoit en 2018 le prix Gandoger de la Société botanique de France pour sa publication de la Nouvelle Flore Illustrée des Pyrénées.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La grande flore illustrée des Pyrénées, Tarbes, Randonnées pyrénéennes, 1992, 765 p. (ISBN 2-905521-47-3).
 Nouvelle flore illustrée des Pyrénées, Pau, Éditions du Pin à crochets, 2018, 1379 p. (ISBN 978-2-911715-53-2).
@@ -583,9 +599,11 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Un sentier botanique porte son nom, situé dans la Vallée de Barétous[4].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un sentier botanique porte son nom, situé dans la Vallée de Barétous.</t>
         </is>
       </c>
     </row>
